--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.77757758896478</v>
+        <v>0.033285</v>
       </c>
       <c r="N2">
-        <v>3.77757758896478</v>
+        <v>0.099855</v>
       </c>
       <c r="O2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="P2">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="Q2">
-        <v>3.166048435617585</v>
+        <v>0.03345952435</v>
       </c>
       <c r="R2">
-        <v>3.166048435617585</v>
+        <v>0.30113571915</v>
       </c>
       <c r="S2">
-        <v>0.06187891581459237</v>
+        <v>0.0005551954313044366</v>
       </c>
       <c r="T2">
-        <v>0.06187891581459237</v>
+        <v>0.0005551954313044365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.155457982786767</v>
+        <v>4.140873</v>
       </c>
       <c r="N3">
-        <v>0.155457982786767</v>
+        <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.03952620817958557</v>
+        <v>0.9560023056192156</v>
       </c>
       <c r="P3">
-        <v>0.03952620817958557</v>
+        <v>0.9560023056192157</v>
       </c>
       <c r="Q3">
-        <v>0.1302918316341425</v>
+        <v>4.16258497743</v>
       </c>
       <c r="R3">
-        <v>0.1302918316341425</v>
+        <v>37.46326479687</v>
       </c>
       <c r="S3">
-        <v>0.002546492084681412</v>
+        <v>0.06906996458500514</v>
       </c>
       <c r="T3">
-        <v>0.002546492084681412</v>
+        <v>0.06906996458500514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1160701072289</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>10.1160701072289</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.77757758896478</v>
+        <v>0.1572886666666667</v>
       </c>
       <c r="N4">
-        <v>3.77757758896478</v>
+        <v>0.471866</v>
       </c>
       <c r="O4">
-        <v>0.9604737918204145</v>
+        <v>0.03631319482174546</v>
       </c>
       <c r="P4">
-        <v>0.9604737918204145</v>
+        <v>0.03631319482174546</v>
       </c>
       <c r="Q4">
-        <v>38.21423972546443</v>
+        <v>0.1581133835755555</v>
       </c>
       <c r="R4">
-        <v>38.21423972546443</v>
+        <v>1.42302045218</v>
       </c>
       <c r="S4">
-        <v>0.746879200042751</v>
+        <v>0.002623582668748678</v>
       </c>
       <c r="T4">
-        <v>0.746879200042751</v>
+        <v>0.002623582668748678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H5">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I5">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J5">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.155457982786767</v>
+        <v>0.033285</v>
       </c>
       <c r="N5">
-        <v>0.155457982786767</v>
+        <v>0.099855</v>
       </c>
       <c r="O5">
-        <v>0.03952620817958557</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="P5">
-        <v>0.03952620817958557</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="Q5">
-        <v>1.572623852599319</v>
+        <v>0.34149875221</v>
       </c>
       <c r="R5">
-        <v>1.572623852599319</v>
+        <v>3.07348876989</v>
       </c>
       <c r="S5">
-        <v>0.03073618769955139</v>
+        <v>0.005666504551585411</v>
       </c>
       <c r="T5">
-        <v>0.03073618769955139</v>
+        <v>0.00566650455158541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.77757758896478</v>
+        <v>4.140873</v>
       </c>
       <c r="N6">
-        <v>3.77757758896478</v>
+        <v>12.422619</v>
       </c>
       <c r="O6">
-        <v>0.9604737918204145</v>
+        <v>0.9560023056192156</v>
       </c>
       <c r="P6">
-        <v>0.9604737918204145</v>
+        <v>0.9560023056192157</v>
       </c>
       <c r="Q6">
-        <v>1.351803031864789</v>
+        <v>42.484691679738</v>
       </c>
       <c r="R6">
-        <v>1.351803031864789</v>
+        <v>382.362225117642</v>
       </c>
       <c r="S6">
-        <v>0.026420349438007</v>
+        <v>0.7049504492124721</v>
       </c>
       <c r="T6">
-        <v>0.026420349438007</v>
+        <v>0.7049504492124721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.155457982786767</v>
+        <v>0.1572886666666667</v>
       </c>
       <c r="N7">
-        <v>0.155457982786767</v>
+        <v>0.471866</v>
       </c>
       <c r="O7">
-        <v>0.03952620817958557</v>
+        <v>0.03631319482174546</v>
       </c>
       <c r="P7">
-        <v>0.03952620817958557</v>
+        <v>0.03631319482174546</v>
       </c>
       <c r="Q7">
-        <v>0.05563051122302048</v>
+        <v>1.613756448954222</v>
       </c>
       <c r="R7">
-        <v>0.05563051122302048</v>
+        <v>14.523808040588</v>
       </c>
       <c r="S7">
-        <v>0.001087271970310378</v>
+        <v>0.02677713521344351</v>
       </c>
       <c r="T7">
-        <v>0.001087271970310378</v>
+        <v>0.0267771352134435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H8">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I8">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J8">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.77757758896478</v>
+        <v>0.033285</v>
       </c>
       <c r="N8">
-        <v>3.77757758896478</v>
+        <v>0.099855</v>
       </c>
       <c r="O8">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="P8">
-        <v>0.9604737918204145</v>
+        <v>0.007684499559038781</v>
       </c>
       <c r="Q8">
-        <v>6.410763138182289</v>
+        <v>0.012777279375</v>
       </c>
       <c r="R8">
-        <v>6.410763138182289</v>
+        <v>0.114995514375</v>
       </c>
       <c r="S8">
-        <v>0.1252953265250641</v>
+        <v>0.0002120139861910621</v>
       </c>
       <c r="T8">
-        <v>0.1252953265250641</v>
+        <v>0.0002120139861910621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.383875</v>
+      </c>
+      <c r="H9">
+        <v>1.151625</v>
+      </c>
+      <c r="I9">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J9">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.140873</v>
+      </c>
+      <c r="N9">
+        <v>12.422619</v>
+      </c>
+      <c r="O9">
+        <v>0.9560023056192156</v>
+      </c>
+      <c r="P9">
+        <v>0.9560023056192157</v>
+      </c>
+      <c r="Q9">
+        <v>1.589577622875</v>
+      </c>
+      <c r="R9">
+        <v>14.306198605875</v>
+      </c>
+      <c r="S9">
+        <v>0.02637593483674154</v>
+      </c>
+      <c r="T9">
+        <v>0.02637593483674154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.69705664204216</v>
-      </c>
-      <c r="H9">
-        <v>1.69705664204216</v>
-      </c>
-      <c r="I9">
-        <v>0.1304515829501065</v>
-      </c>
-      <c r="J9">
-        <v>0.1304515829501065</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.155457982786767</v>
-      </c>
-      <c r="N9">
-        <v>0.155457982786767</v>
-      </c>
-      <c r="O9">
-        <v>0.03952620817958557</v>
-      </c>
-      <c r="P9">
-        <v>0.03952620817958557</v>
-      </c>
-      <c r="Q9">
-        <v>0.2638210022467588</v>
-      </c>
-      <c r="R9">
-        <v>0.2638210022467588</v>
-      </c>
-      <c r="S9">
-        <v>0.005156256425042386</v>
-      </c>
-      <c r="T9">
-        <v>0.005156256425042386</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.383875</v>
+      </c>
+      <c r="H10">
+        <v>1.151625</v>
+      </c>
+      <c r="I10">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J10">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1572886666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.471866</v>
+      </c>
+      <c r="O10">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="P10">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="Q10">
+        <v>0.06037918691666667</v>
+      </c>
+      <c r="R10">
+        <v>0.5434126822500001</v>
+      </c>
+      <c r="S10">
+        <v>0.001001874634300052</v>
+      </c>
+      <c r="T10">
+        <v>0.001001874634300052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.264687</v>
+      </c>
+      <c r="H11">
+        <v>6.794061</v>
+      </c>
+      <c r="I11">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J11">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.033285</v>
+      </c>
+      <c r="N11">
+        <v>0.099855</v>
+      </c>
+      <c r="O11">
+        <v>0.007684499559038781</v>
+      </c>
+      <c r="P11">
+        <v>0.007684499559038781</v>
+      </c>
+      <c r="Q11">
+        <v>0.075380106795</v>
+      </c>
+      <c r="R11">
+        <v>0.6784209611550001</v>
+      </c>
+      <c r="S11">
+        <v>0.001250785589957872</v>
+      </c>
+      <c r="T11">
+        <v>0.001250785589957872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.264687</v>
+      </c>
+      <c r="H12">
+        <v>6.794061</v>
+      </c>
+      <c r="I12">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J12">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.140873</v>
+      </c>
+      <c r="N12">
+        <v>12.422619</v>
+      </c>
+      <c r="O12">
+        <v>0.9560023056192156</v>
+      </c>
+      <c r="P12">
+        <v>0.9560023056192157</v>
+      </c>
+      <c r="Q12">
+        <v>9.377781251750999</v>
+      </c>
+      <c r="R12">
+        <v>84.40003126575901</v>
+      </c>
+      <c r="S12">
+        <v>0.1556059569849969</v>
+      </c>
+      <c r="T12">
+        <v>0.1556059569849969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.264687</v>
+      </c>
+      <c r="H13">
+        <v>6.794061</v>
+      </c>
+      <c r="I13">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J13">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1572886666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.471866</v>
+      </c>
+      <c r="O13">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="P13">
+        <v>0.03631319482174546</v>
+      </c>
+      <c r="Q13">
+        <v>0.3562095986473333</v>
+      </c>
+      <c r="R13">
+        <v>3.205886387826</v>
+      </c>
+      <c r="S13">
+        <v>0.005910602305253227</v>
+      </c>
+      <c r="T13">
+        <v>0.005910602305253227</v>
       </c>
     </row>
   </sheetData>
